--- a/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.20.2.xlsx
+++ b/Pixelmon Custom NPC Shop/Custom Shopkeepers - 1.20.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\PixelmonCustomization\Pixelmon Custom NPC Shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009FA689-246F-41AC-A1C0-A3FDA5EBD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD8428-560A-4E5A-B996-8A6DB0E9F123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="516">
   <si>
     <t>pixelmon:exp_all</t>
   </si>
@@ -1537,6 +1537,51 @@
   </si>
   <si>
     <t>pixelmon:poke_ballpixelmon:master_ball</t>
+  </si>
+  <si>
+    <t>pixelmon:x_attack</t>
+  </si>
+  <si>
+    <t>pixelmon:x_defense</t>
+  </si>
+  <si>
+    <t>pixelmon:x_special_attack</t>
+  </si>
+  <si>
+    <t>pixelmon:x_special_defense</t>
+  </si>
+  <si>
+    <t>pixelmon:x_speed</t>
+  </si>
+  <si>
+    <t>pixelmon:x_accuracy</t>
+  </si>
+  <si>
+    <t>pixelmon:dire_hit</t>
+  </si>
+  <si>
+    <t>pixelmon:guard_spec</t>
+  </si>
+  <si>
+    <t>pixelmon:auspicious_armor</t>
+  </si>
+  <si>
+    <t>pixelmon:chipped_pot</t>
+  </si>
+  <si>
+    <t>pixelmon:cracked_pot</t>
+  </si>
+  <si>
+    <t>pixelmon:linking_cord</t>
+  </si>
+  <si>
+    <t>pixelmon:malicious_armor</t>
+  </si>
+  <si>
+    <t>pixelmon:sweet_apple</t>
+  </si>
+  <si>
+    <t>pixelmon:tart_apple</t>
   </si>
 </sst>
 </file>
@@ -1857,11 +1902,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE888BD-5DA8-4EC4-800C-516BD8A60089}">
-  <dimension ref="A1:Q270"/>
+  <dimension ref="A1:Q277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1984,7 +2027,7 @@
         <v>373</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="Q2" t="s">
         <v>463</v>
@@ -2036,8 +2079,8 @@
       <c r="O3" t="s">
         <v>374</v>
       </c>
-      <c r="P3" t="s">
-        <v>392</v>
+      <c r="P3" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="Q3" t="s">
         <v>464</v>
@@ -2090,7 +2133,7 @@
         <v>375</v>
       </c>
       <c r="P4" t="s">
-        <v>393</v>
+        <v>510</v>
       </c>
       <c r="Q4" t="s">
         <v>465</v>
@@ -2143,7 +2186,7 @@
         <v>376</v>
       </c>
       <c r="P5" t="s">
-        <v>394</v>
+        <v>511</v>
       </c>
       <c r="Q5" t="s">
         <v>466</v>
@@ -2196,7 +2239,7 @@
         <v>377</v>
       </c>
       <c r="P6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q6" t="s">
         <v>467</v>
@@ -2249,7 +2292,7 @@
         <v>377</v>
       </c>
       <c r="P7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q7" t="s">
         <v>468</v>
@@ -2302,7 +2345,7 @@
         <v>378</v>
       </c>
       <c r="P8" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="Q8" t="s">
         <v>469</v>
@@ -2352,7 +2395,7 @@
         <v>379</v>
       </c>
       <c r="P9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q9" t="s">
         <v>470</v>
@@ -2402,7 +2445,7 @@
         <v>380</v>
       </c>
       <c r="P10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q10" t="s">
         <v>471</v>
@@ -2449,7 +2492,7 @@
         <v>381</v>
       </c>
       <c r="P11" t="s">
-        <v>399</v>
+        <v>14</v>
       </c>
       <c r="Q11" t="s">
         <v>472</v>
@@ -2493,7 +2536,7 @@
         <v>382</v>
       </c>
       <c r="P12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q12" t="s">
         <v>473</v>
@@ -2536,8 +2579,8 @@
       <c r="O13" t="s">
         <v>383</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>456</v>
+      <c r="P13" t="s">
+        <v>512</v>
       </c>
       <c r="Q13" t="s">
         <v>474</v>
@@ -2581,7 +2624,7 @@
         <v>384</v>
       </c>
       <c r="P14" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q14" t="s">
         <v>475</v>
@@ -2624,8 +2667,8 @@
       <c r="O15" t="s">
         <v>385</v>
       </c>
-      <c r="P15" t="s">
-        <v>402</v>
+      <c r="P15" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="Q15" t="s">
         <v>476</v>
@@ -2669,7 +2712,7 @@
         <v>386</v>
       </c>
       <c r="P16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q16" t="s">
         <v>477</v>
@@ -2707,7 +2750,7 @@
         <v>387</v>
       </c>
       <c r="P17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q17" t="s">
         <v>478</v>
@@ -2744,8 +2787,8 @@
       <c r="O18" t="s">
         <v>388</v>
       </c>
-      <c r="P18" t="s">
-        <v>405</v>
+      <c r="P18" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="Q18" t="s">
         <v>479</v>
@@ -2780,7 +2823,7 @@
         <v>389</v>
       </c>
       <c r="P19" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="Q19" t="s">
         <v>480</v>
@@ -2812,7 +2855,7 @@
         <v>390</v>
       </c>
       <c r="P20" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="Q20" t="s">
         <v>481</v>
@@ -2841,7 +2884,7 @@
         <v>305</v>
       </c>
       <c r="P21" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="Q21" t="s">
         <v>482</v>
@@ -2869,6 +2912,9 @@
       <c r="N22" t="s">
         <v>306</v>
       </c>
+      <c r="P22" t="s">
+        <v>404</v>
+      </c>
       <c r="Q22" t="s">
         <v>483</v>
       </c>
@@ -2895,6 +2941,9 @@
       <c r="N23" t="s">
         <v>307</v>
       </c>
+      <c r="P23" t="s">
+        <v>405</v>
+      </c>
       <c r="Q23" t="s">
         <v>484</v>
       </c>
@@ -2921,6 +2970,9 @@
       <c r="N24" t="s">
         <v>308</v>
       </c>
+      <c r="P24" t="s">
+        <v>421</v>
+      </c>
       <c r="Q24" t="s">
         <v>485</v>
       </c>
@@ -2947,6 +2999,9 @@
       <c r="N25" t="s">
         <v>309</v>
       </c>
+      <c r="P25" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="Q25" t="s">
         <v>486</v>
       </c>
@@ -2973,6 +3028,9 @@
       <c r="N26" t="s">
         <v>310</v>
       </c>
+      <c r="P26" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="Q26" t="s">
         <v>487</v>
       </c>
@@ -2999,6 +3057,9 @@
       <c r="N27" t="s">
         <v>311</v>
       </c>
+      <c r="P27" t="s">
+        <v>437</v>
+      </c>
       <c r="Q27" t="s">
         <v>488</v>
       </c>
@@ -3025,6 +3086,9 @@
       <c r="N28" t="s">
         <v>312</v>
       </c>
+      <c r="P28" t="s">
+        <v>422</v>
+      </c>
       <c r="Q28" t="s">
         <v>489</v>
       </c>
@@ -3065,6 +3129,9 @@
       <c r="F30" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="G30" t="s">
+        <v>501</v>
+      </c>
       <c r="J30" t="s">
         <v>163</v>
       </c>
@@ -3088,6 +3155,9 @@
       <c r="F31" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="G31" t="s">
+        <v>502</v>
+      </c>
       <c r="J31" t="s">
         <v>165</v>
       </c>
@@ -3111,6 +3181,9 @@
       <c r="F32" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G32" t="s">
+        <v>503</v>
+      </c>
       <c r="J32" t="s">
         <v>167</v>
       </c>
@@ -3134,6 +3207,9 @@
       <c r="F33" s="1" t="s">
         <v>442</v>
       </c>
+      <c r="G33" t="s">
+        <v>504</v>
+      </c>
       <c r="J33" t="s">
         <v>168</v>
       </c>
@@ -3157,6 +3233,9 @@
       <c r="F34" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="G34" t="s">
+        <v>505</v>
+      </c>
       <c r="J34" t="s">
         <v>170</v>
       </c>
@@ -3180,6 +3259,9 @@
       <c r="F35" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="G35" t="s">
+        <v>506</v>
+      </c>
       <c r="J35" t="s">
         <v>171</v>
       </c>
@@ -3203,6 +3285,9 @@
       <c r="F36" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="G36" t="s">
+        <v>507</v>
+      </c>
       <c r="L36" t="s">
         <v>413</v>
       </c>
@@ -3223,6 +3308,9 @@
       <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="G37" t="s">
+        <v>508</v>
+      </c>
       <c r="L37" t="s">
         <v>233</v>
       </c>
@@ -4639,101 +4727,136 @@
     </row>
     <row r="251" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q251" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="252" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q252" s="1" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="252" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q252" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="253" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q253" t="s">
-        <v>393</v>
+        <v>510</v>
       </c>
     </row>
     <row r="254" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q254" t="s">
-        <v>394</v>
+        <v>511</v>
       </c>
     </row>
     <row r="255" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q255" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="256" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q256" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="257" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q257" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
     </row>
     <row r="258" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q258" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="259" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q259" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="260" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q260" t="s">
-        <v>399</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q261" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="262" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q262" s="1" t="s">
-        <v>456</v>
+      <c r="Q262" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="263" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q263" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="264" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q264" t="s">
-        <v>402</v>
+      <c r="Q264" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="265" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q265" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="266" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q266" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="267" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q267" t="s">
-        <v>405</v>
+      <c r="Q267" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="268" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q268" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="269" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q269" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="270" spans="17:17" x14ac:dyDescent="0.25">
       <c r="Q270" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="271" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q271" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="272" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q272" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="273" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q273" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="274" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q274" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="275" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q275" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="276" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q276" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="277" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q277" t="s">
         <v>422</v>
       </c>
     </row>
